--- a/output/inference_results/test_sheets/batch_005/test_sheet (52).xlsx
+++ b/output/inference_results/test_sheets/batch_005/test_sheet (52).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,154 +424,133 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>代号</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>代号</t>
+          <t>项目</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>项目</t>
+          <t>结果</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>结果</t>
+          <t>参考值</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>参考值</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
           <t>单位</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TBIL</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TBIL</t>
+          <t>总胆红素</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>总胆红素</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>5.1-17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.1-17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>umol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>DBIL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DBIL</t>
+          <t>直接胆红素</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>直接胆红素</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>0-5.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0-5.1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>u mol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>IBIL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IBIL</t>
+          <t>间接胆红素</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>间接胆红素</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.1-13.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.1-13.9</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>u mol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>ALT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ALT</t>
+          <t>谷丙转氨酶</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>谷丙转氨酶</t>
+          <t>18.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.2</t>
+          <t>0-40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>0-40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
@@ -580,30 +559,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>AST</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>谷草转氨酶</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>谷草转氨酶</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>0-37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>0-37</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
@@ -612,30 +586,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>GGT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GGT</t>
+          <t>γ谷氨酰转肽酶</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>谷氨酰转肽酶</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>0-50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>0-50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
@@ -644,30 +613,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>ALP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALP</t>
+          <t>碱性磷酸酶</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>碱性磷酸酶</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>53-128</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>53-128</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
@@ -676,30 +640,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>总蛋白</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>总蛋白</t>
+          <t>71.5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>71.5</t>
+          <t>60-85</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
-        <is>
-          <t>60-85</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
         <is>
           <t>g/L</t>
         </is>
@@ -708,30 +667,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>白蛋白</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>白蛋白</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>35-50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
-        <is>
-          <t>35-50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
         <is>
           <t>g/L</t>
         </is>
@@ -740,30 +694,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>GLB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GLB</t>
+          <t>球蛋白</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>球蛋白</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>20-35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t>20-35</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>g/L</t>
         </is>
@@ -772,30 +721,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>BUN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BUN</t>
+          <t>尿素</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>尿素</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.82-8.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
-        <is>
-          <t>2.82-8.2</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
         <is>
           <t>mmol/L</t>
         </is>
@@ -804,62 +748,52 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>CREA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CREA</t>
+          <t>肌酐</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>肌酐</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>44-124</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>44-124</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>u mol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>UA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>UA</t>
+          <t>尿酸</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>尿酸</t>
+          <t>157.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>157.0</t>
+          <t>142-416</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
-        <is>
-          <t>142-416</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
         <is>
           <t>μmol/L</t>
         </is>
@@ -868,30 +802,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>GLU</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GLU</t>
+          <t>葡萄糖</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>葡萄糖</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.89-6.11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
-        <is>
-          <t>3.89-6.11</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t>mmol/L</t>
         </is>
